--- a/ewant育網學習.xlsx
+++ b/ewant育網學習.xlsx
@@ -466,6 +466,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -476,15 +506,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -510,27 +531,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,15 +554,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>124718</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>105668</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>538610</xdr:colOff>
+      <xdr:colOff>519560</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>381000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -585,7 +585,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="124718" y="990600"/>
+          <a:off x="105668" y="1304925"/>
           <a:ext cx="6395592" cy="3733800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -598,15 +598,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>671977</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>144377</xdr:rowOff>
+      <xdr:colOff>624352</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>163427</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -629,7 +629,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="95250" y="5219699"/>
+          <a:off x="47625" y="5448299"/>
           <a:ext cx="6558427" cy="3373353"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -907,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -936,49 +936,49 @@
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="16"/>
       <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="30"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="19">
         <v>100</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -1160,7 +1160,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1171,16 +1171,16 @@
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="13"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
@@ -1352,7 +1352,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1363,104 +1363,111 @@
       <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="16"/>
-    </row>
-    <row r="44" spans="1:8" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="11" t="s">
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="13"/>
+    </row>
+    <row r="44" spans="1:8" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="13"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="23"/>
     </row>
     <row r="45" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="16"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="13"/>
     </row>
     <row r="46" spans="1:8" ht="182.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="19"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="26"/>
     </row>
     <row r="47" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="16"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="13"/>
     </row>
     <row r="48" spans="1:8" ht="123" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="19"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="26"/>
     </row>
     <row r="49" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="22"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="29"/>
     </row>
     <row r="50" spans="1:8" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="25"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="32"/>
     </row>
     <row r="51" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="A46:H46"/>
     <mergeCell ref="A43:H43"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:H2"/>
@@ -1468,13 +1475,6 @@
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A45:H45"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A50:H50"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="A46:H46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
